--- a/biology/Botanique/Bupleurum_gibraltaricum/Bupleurum_gibraltaricum.xlsx
+++ b/biology/Botanique/Bupleurum_gibraltaricum/Bupleurum_gibraltaricum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Bupleurum gibraltaricum est une espèce de plantes herbacées de la famille des Apiaceae.
 </t>
@@ -511,9 +523,11 @@
           <t>Répartition, habitat</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Bupleurum gibraltaricum se rencontre dans le Sud de la péninsule Ibérique et en Afrique du Nord[2],[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bupleurum gibraltaricum se rencontre dans le Sud de la péninsule Ibérique et en Afrique du Nord,.
 On la trouve dans le maquis méditerranéen sur des pentes, des falaises ou des sols caillouteux, parfois schisteux ou ardoisés, à des altitudes comprises entre 0 et 1 500 m.
 </t>
         </is>
@@ -543,7 +557,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est un arbuste de 0,60-2,00 m de hauteur avec des tiges ligneuses à la base et souvent au milieu de sa longueur, légèrement ramifiées et des feuilles de 3-25 par 3-30 mm. Les inflorescences, en ombelles terminales et latérales, avec 3-12 bractées, ovales à lancéolées, réfléchies, beaucoup plus courtes que les rayons et persistantes.
 Dans sa description de 1785, Jean-Baptiste de Lamarck indiquait ceci : 
